--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H2">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.380755612835441</v>
+        <v>1.664391</v>
       </c>
       <c r="N2">
-        <v>0.380755612835441</v>
+        <v>4.993173000000001</v>
       </c>
       <c r="O2">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="P2">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="Q2">
-        <v>31.2812478714233</v>
+        <v>260.737580478777</v>
       </c>
       <c r="R2">
-        <v>31.2812478714233</v>
+        <v>2346.638224308993</v>
       </c>
       <c r="S2">
-        <v>0.007008451093760851</v>
+        <v>0.02679932590288502</v>
       </c>
       <c r="T2">
-        <v>0.007008451093760851</v>
+        <v>0.02679932590288502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H3">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.437491389248888</v>
+        <v>0.437958</v>
       </c>
       <c r="N3">
-        <v>0.437491389248888</v>
+        <v>1.313874</v>
       </c>
       <c r="O3">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054939</v>
       </c>
       <c r="P3">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054938</v>
       </c>
       <c r="Q3">
-        <v>35.94241588927658</v>
+        <v>68.60894421522599</v>
       </c>
       <c r="R3">
-        <v>35.94241588927658</v>
+        <v>617.480497937034</v>
       </c>
       <c r="S3">
-        <v>0.008052769025935486</v>
+        <v>0.007051816053905432</v>
       </c>
       <c r="T3">
-        <v>0.008052769025935486</v>
+        <v>0.007051816053905431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H4">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I4">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J4">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.715489312237837</v>
+        <v>1.439215333333333</v>
       </c>
       <c r="N4">
-        <v>0.715489312237837</v>
+        <v>4.317646</v>
       </c>
       <c r="O4">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="P4">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="Q4">
-        <v>58.78153274956182</v>
+        <v>225.4623605879206</v>
       </c>
       <c r="R4">
-        <v>58.78153274956182</v>
+        <v>2029.161245291286</v>
       </c>
       <c r="S4">
-        <v>0.01316979102575876</v>
+        <v>0.02317364174790016</v>
       </c>
       <c r="T4">
-        <v>0.01316979102575876</v>
+        <v>0.02317364174790016</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H5">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I5">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J5">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5914276240372009</v>
+        <v>0.6293069999999999</v>
       </c>
       <c r="N5">
-        <v>0.5914276240372009</v>
+        <v>1.887921</v>
       </c>
       <c r="O5">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="P5">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="Q5">
-        <v>48.58915661871126</v>
+        <v>98.58499869222898</v>
       </c>
       <c r="R5">
-        <v>48.58915661871126</v>
+        <v>887.2649882300609</v>
       </c>
       <c r="S5">
-        <v>0.01088622580688083</v>
+        <v>0.01013283740777669</v>
       </c>
       <c r="T5">
-        <v>0.01088622580688083</v>
+        <v>0.01013283740777669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H6">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J6">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.380755612835441</v>
+        <v>1.664391</v>
       </c>
       <c r="N6">
-        <v>0.380755612835441</v>
+        <v>4.993173000000001</v>
       </c>
       <c r="O6">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="P6">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="Q6">
-        <v>16.01733983327149</v>
+        <v>70.40489105857201</v>
       </c>
       <c r="R6">
-        <v>16.01733983327149</v>
+        <v>633.6440195271481</v>
       </c>
       <c r="S6">
-        <v>0.003588627389004579</v>
+        <v>0.007236408411749318</v>
       </c>
       <c r="T6">
-        <v>0.003588627389004579</v>
+        <v>0.007236408411749318</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H7">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J7">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.437491389248888</v>
+        <v>0.437958</v>
       </c>
       <c r="N7">
-        <v>0.437491389248888</v>
+        <v>1.313874</v>
       </c>
       <c r="O7">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054939</v>
       </c>
       <c r="P7">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054938</v>
       </c>
       <c r="Q7">
-        <v>18.4040576671894</v>
+        <v>18.525926466936</v>
       </c>
       <c r="R7">
-        <v>18.4040576671894</v>
+        <v>166.733338202424</v>
       </c>
       <c r="S7">
-        <v>0.004123362936715943</v>
+        <v>0.001904145693645849</v>
       </c>
       <c r="T7">
-        <v>0.004123362936715943</v>
+        <v>0.001904145693645848</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H8">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J8">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.715489312237837</v>
+        <v>1.439215333333333</v>
       </c>
       <c r="N8">
-        <v>0.715489312237837</v>
+        <v>4.317646</v>
       </c>
       <c r="O8">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="P8">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="Q8">
-        <v>30.09866453666734</v>
+        <v>60.87980453701066</v>
       </c>
       <c r="R8">
-        <v>30.09866453666734</v>
+        <v>547.918240833096</v>
       </c>
       <c r="S8">
-        <v>0.006743497550347219</v>
+        <v>0.006257393812182311</v>
       </c>
       <c r="T8">
-        <v>0.006743497550347219</v>
+        <v>0.006257393812182311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H9">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J9">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5914276240372009</v>
+        <v>0.6293069999999999</v>
       </c>
       <c r="N9">
-        <v>0.5914276240372009</v>
+        <v>1.887921</v>
       </c>
       <c r="O9">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="P9">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="Q9">
-        <v>24.87973104439135</v>
+        <v>26.620121580444</v>
       </c>
       <c r="R9">
-        <v>24.87973104439135</v>
+        <v>239.581094223996</v>
       </c>
       <c r="S9">
-        <v>0.005574214269432423</v>
+        <v>0.002736089337404928</v>
       </c>
       <c r="T9">
-        <v>0.005574214269432423</v>
+        <v>0.002736089337404928</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H10">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I10">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J10">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.380755612835441</v>
+        <v>1.664391</v>
       </c>
       <c r="N10">
-        <v>0.380755612835441</v>
+        <v>4.993173000000001</v>
       </c>
       <c r="O10">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="P10">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="Q10">
-        <v>744.6408424324668</v>
+        <v>3512.180605163856</v>
       </c>
       <c r="R10">
-        <v>744.6408424324668</v>
+        <v>31609.62544647471</v>
       </c>
       <c r="S10">
-        <v>0.166834102912256</v>
+        <v>0.3609915858494339</v>
       </c>
       <c r="T10">
-        <v>0.166834102912256</v>
+        <v>0.3609915858494339</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H11">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I11">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J11">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.437491389248888</v>
+        <v>0.437958</v>
       </c>
       <c r="N11">
-        <v>0.437491389248888</v>
+        <v>1.313874</v>
       </c>
       <c r="O11">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054939</v>
       </c>
       <c r="P11">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054938</v>
       </c>
       <c r="Q11">
-        <v>855.5985668109865</v>
+        <v>924.1744238441281</v>
       </c>
       <c r="R11">
-        <v>855.5985668109865</v>
+        <v>8317.569814597151</v>
       </c>
       <c r="S11">
-        <v>0.1916937820394515</v>
+        <v>0.09498919001331201</v>
       </c>
       <c r="T11">
-        <v>0.1916937820394515</v>
+        <v>0.09498919001331198</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H12">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I12">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J12">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.715489312237837</v>
+        <v>1.439215333333333</v>
       </c>
       <c r="N12">
-        <v>0.715489312237837</v>
+        <v>4.317646</v>
       </c>
       <c r="O12">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="P12">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="Q12">
-        <v>1399.276980445914</v>
+        <v>3037.017251587979</v>
       </c>
       <c r="R12">
-        <v>1399.276980445914</v>
+        <v>27333.15526429181</v>
       </c>
       <c r="S12">
-        <v>0.3135029754691923</v>
+        <v>0.3121529890265097</v>
       </c>
       <c r="T12">
-        <v>0.3135029754691923</v>
+        <v>0.3121529890265097</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H13">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I13">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J13">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5914276240372009</v>
+        <v>0.6293069999999999</v>
       </c>
       <c r="N13">
-        <v>0.5914276240372009</v>
+        <v>1.887921</v>
       </c>
       <c r="O13">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="P13">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="Q13">
-        <v>1156.65048486424</v>
+        <v>1327.957096676112</v>
       </c>
       <c r="R13">
-        <v>1156.65048486424</v>
+        <v>11951.61387008501</v>
       </c>
       <c r="S13">
-        <v>0.2591433816536221</v>
+        <v>0.136491084075887</v>
       </c>
       <c r="T13">
-        <v>0.2591433816536221</v>
+        <v>0.136491084075887</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H14">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I14">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J14">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.380755612835441</v>
+        <v>1.664391</v>
       </c>
       <c r="N14">
-        <v>0.380755612835441</v>
+        <v>4.993173000000001</v>
       </c>
       <c r="O14">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="P14">
-        <v>0.1791652897749552</v>
+        <v>0.3990511495040125</v>
       </c>
       <c r="Q14">
-        <v>7.739951858537188</v>
+        <v>39.14887748141601</v>
       </c>
       <c r="R14">
-        <v>7.739951858537188</v>
+        <v>352.339897332744</v>
       </c>
       <c r="S14">
-        <v>0.001734108379933794</v>
+        <v>0.004023829339944273</v>
       </c>
       <c r="T14">
-        <v>0.001734108379933794</v>
+        <v>0.004023829339944272</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H15">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I15">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J15">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.437491389248888</v>
+        <v>0.437958</v>
       </c>
       <c r="N15">
-        <v>0.437491389248888</v>
+        <v>1.313874</v>
       </c>
       <c r="O15">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054939</v>
       </c>
       <c r="P15">
-        <v>0.205862419059601</v>
+        <v>0.1050039584054938</v>
       </c>
       <c r="Q15">
-        <v>8.893269533427507</v>
+        <v>10.301403987408</v>
       </c>
       <c r="R15">
-        <v>8.893269533427507</v>
+        <v>92.712635886672</v>
       </c>
       <c r="S15">
-        <v>0.001992505057498019</v>
+        <v>0.001058806644630567</v>
       </c>
       <c r="T15">
-        <v>0.001992505057498019</v>
+        <v>0.001058806644630567</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H16">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I16">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J16">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.715489312237837</v>
+        <v>1.439215333333333</v>
       </c>
       <c r="N16">
-        <v>0.715489312237837</v>
+        <v>4.317646</v>
       </c>
       <c r="O16">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="P16">
-        <v>0.3366748792049412</v>
+        <v>0.3450634695516061</v>
       </c>
       <c r="Q16">
-        <v>14.54437609147511</v>
+        <v>33.85242094798756</v>
       </c>
       <c r="R16">
-        <v>14.54437609147511</v>
+        <v>304.671788531888</v>
       </c>
       <c r="S16">
-        <v>0.003258615159642923</v>
+        <v>0.003479444965013835</v>
       </c>
       <c r="T16">
-        <v>0.003258615159642923</v>
+        <v>0.003479444965013835</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H17">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I17">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J17">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5914276240372009</v>
+        <v>0.6293069999999999</v>
       </c>
       <c r="N17">
-        <v>0.5914276240372009</v>
+        <v>1.887921</v>
       </c>
       <c r="O17">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="P17">
-        <v>0.2782974119605027</v>
+        <v>0.1508814225388875</v>
       </c>
       <c r="Q17">
-        <v>12.02246581151614</v>
+        <v>14.802208520232</v>
       </c>
       <c r="R17">
-        <v>12.02246581151614</v>
+        <v>133.219876682088</v>
       </c>
       <c r="S17">
-        <v>0.00269359023056739</v>
+        <v>0.001521411717818896</v>
       </c>
       <c r="T17">
-        <v>0.00269359023056739</v>
+        <v>0.001521411717818896</v>
       </c>
     </row>
   </sheetData>
